--- a/Assets/ValuesandParameters.xlsx
+++ b/Assets/ValuesandParameters.xlsx
@@ -3878,7 +3878,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="B46" s="0">
-        <x:v>120</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3">
